--- a/circuitInformation/EpsilonInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/EpsilonInformation1-1-1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA30B5-A78D-FB44-9A69-0A7542119D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94627404-C7F3-034A-98D9-511D79421DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,50 +40,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Name</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Values1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Values2</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Values1</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Values2</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Relative Epsilon</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Relative Mu</t>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1.0</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,15 +162,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -474,7 +479,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
@@ -497,23 +502,26 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3474,7 +3482,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6435,7 +6443,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9396,7 +9404,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -12357,7 +12365,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15318,7 +15326,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -18279,7 +18287,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -21240,7 +21248,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -24201,7 +24209,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -27162,7 +27170,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -30123,7 +30131,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -33084,7 +33092,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -36045,7 +36053,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -39006,7 +39014,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -41967,7 +41975,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -44928,7 +44936,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -47889,7 +47897,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -50850,7 +50858,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -53811,7 +53819,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -56772,7 +56780,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -59733,7 +59741,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>